--- a/Foodies_Documents_Baseline/Foodies_SRS_PR.xlsx
+++ b/Foodies_Documents_Baseline/Foodies_SRS_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -31,14 +31,265 @@
     <t>Reviewer Name</t>
   </si>
   <si>
-    <t>SRS PR</t>
+    <t>publisher notes</t>
+  </si>
+  <si>
+    <t>Foodies_PR_001</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_003</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>this requirment doesn't match to any CRS , it's assumtion</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not assumtion </t>
+  </si>
+  <si>
+    <t>Foodies_PR_002</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_005</t>
+  </si>
+  <si>
+    <t>the system's language shall accept english and franko</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Foodies_PR_003</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_008</t>
+  </si>
+  <si>
+    <t>this requirment is dublicated referring to Foodies_SRS_001</t>
+  </si>
+  <si>
+    <t>Foodies_PR_004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong password replied 2 times .
+strong password shall be :- "not should"
+1- 2 Capital letters .
+2- 2 Special Characters .
+3- it's length Minimum [8] character  Maximum [10] character . "not his"
+</t>
+  </si>
+  <si>
+    <t>Foodies_PR_005</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's standard </t>
+  </si>
+  <si>
+    <t>Foodies_PR_006</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_011</t>
+  </si>
+  <si>
+    <t>please specify which model you are "registeration or login screen"</t>
+  </si>
+  <si>
+    <t>Foodies_PR_007</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_012</t>
+  </si>
+  <si>
+    <t>Foodies_PR_008</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013</t>
+  </si>
+  <si>
+    <t>If the user press login without filling the email &amp; Password fields
+the system behaviour shall do nothing</t>
+  </si>
+  <si>
+    <t>Foodies_PR_009</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_014</t>
+  </si>
+  <si>
+    <t>the confirmation password field shall match the password field</t>
+  </si>
+  <si>
+    <t>Foodies_PR_010</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this requirment is dublicated </t>
+  </si>
+  <si>
+    <t>its's not dup. It's explained what the register now link do</t>
+  </si>
+  <si>
+    <t>Foodies_PR_011</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_017</t>
+  </si>
+  <si>
+    <t>please specify which page you are !</t>
+  </si>
+  <si>
+    <t>Foodies_PR_012</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user can accept or reject the system access for the user location </t>
+  </si>
+  <si>
+    <t>Foodies_PR_013</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after the user press the login page the system shall 
+navigate to the home page </t>
+  </si>
+  <si>
+    <t>Foodies_PR_014</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should get customer 
+location in range of  5KM away from restaurants  </t>
+  </si>
+  <si>
+    <t>Foodies_PR_015</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_022</t>
+  </si>
+  <si>
+    <t>The Nearby 5 restaurants shall be sorted alphabetical</t>
+  </si>
+  <si>
+    <t>Foodies_PR_016</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language mistake "restaurants should contains" should be "restaurants shall contain" </t>
+  </si>
+  <si>
+    <t>Mariam Nesiem</t>
+  </si>
+  <si>
+    <t>Foodies_PR_017</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_024</t>
+  </si>
+  <si>
+    <t>SRS should be Compatible with SIQ_012</t>
+  </si>
+  <si>
+    <t>Foodies_PR_018</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_033</t>
+  </si>
+  <si>
+    <t>SRS should be Compatible with SIQ_015</t>
+  </si>
+  <si>
+    <t>Foodies_PR_019</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_034</t>
+  </si>
+  <si>
+    <t>this requirment is dublicated referring to Foodies_SRS_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's not a duplicate </t>
+  </si>
+  <si>
+    <t>Foodies_PR_020</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i found this in description of the project by customer </t>
+  </si>
+  <si>
+    <t>Foodies_PR_021</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_037</t>
+  </si>
+  <si>
+    <t>Foodies_PR_022</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_038</t>
+  </si>
+  <si>
+    <t>you can ask in SIQ</t>
+  </si>
+  <si>
+    <t>Foodies_PR_023</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_041</t>
+  </si>
+  <si>
+    <t>SRS should be Compatible with SIQ_017</t>
+  </si>
+  <si>
+    <t>it's completely different</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_042</t>
+  </si>
+  <si>
+    <t>this SRS should ddivided to  two SRS</t>
+  </si>
+  <si>
+    <t>Foodies_PR_024</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_044</t>
+  </si>
+  <si>
+    <t>this requirment is dublicated referring to Foodies_SRS_043</t>
+  </si>
+  <si>
+    <t>SRS PeerReview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,25 +298,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="28"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,19 +331,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -106,14 +391,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E16" totalsRowShown="0">
-  <autoFilter ref="A4:E16"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="SRS-ID"/>
-    <tableColumn id="3" name="Document Version"/>
-    <tableColumn id="4" name="Notes"/>
-    <tableColumn id="5" name="Reviewer Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A4:F30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="SRS-ID" dataDxfId="4"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
+    <tableColumn id="4" name="Notes" dataDxfId="2"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -406,81 +692,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C19:C20"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="0.140625" customWidth="1"/>
-    <col min="7" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
